--- a/database/SpotData.xlsx
+++ b/database/SpotData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
   <si>
     <t>日期</t>
   </si>
@@ -421,6 +421,9 @@
   <si>
     <t>20180212</t>
   </si>
+  <si>
+    <t>20180213</t>
+  </si>
 </sst>
 </file>
 
@@ -768,7 +771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT91"/>
+  <dimension ref="A1:AT92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13513,6 +13516,146 @@
         <v>2417.27</v>
       </c>
     </row>
+    <row r="92" spans="1:46">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>135</v>
+      </c>
+      <c r="C92" t="n">
+        <v>51690</v>
+      </c>
+      <c r="D92" t="n">
+        <v>3924</v>
+      </c>
+      <c r="E92" t="n">
+        <v>26410</v>
+      </c>
+      <c r="F92" t="n">
+        <v>14120</v>
+      </c>
+      <c r="G92" t="n">
+        <v>270.58</v>
+      </c>
+      <c r="H92" t="n">
+        <v>4231.11</v>
+      </c>
+      <c r="I92" t="n">
+        <v>3963.33</v>
+      </c>
+      <c r="J92" t="n">
+        <v>11727.3</v>
+      </c>
+      <c r="K92" t="n">
+        <v>19050</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3629.33</v>
+      </c>
+      <c r="M92" t="n">
+        <v>2843.33</v>
+      </c>
+      <c r="N92" t="n">
+        <v>4120.77</v>
+      </c>
+      <c r="O92" t="n">
+        <v>100300</v>
+      </c>
+      <c r="P92" t="n">
+        <v>146750</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5663.64</v>
+      </c>
+      <c r="R92" t="n">
+        <v>6262</v>
+      </c>
+      <c r="S92" t="n">
+        <v>15668</v>
+      </c>
+      <c r="T92" t="n">
+        <v>2538</v>
+      </c>
+      <c r="U92" t="n">
+        <v>6471.67</v>
+      </c>
+      <c r="V92" t="n">
+        <v>2613.33</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1543.2</v>
+      </c>
+      <c r="X92" t="n">
+        <v>2335</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>5490</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>2998.33</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>2710</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>7204.55</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>8131.25</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>2855</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>743.2</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>5135</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>6450</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>9655</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>3660</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>2938.75</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>5600</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>1780.36</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>1880</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>1498.33</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>548.67</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>4275</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>122.67</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>9175</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>2417.27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/database/SpotData.xlsx
+++ b/database/SpotData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>日期</t>
   </si>
@@ -423,6 +423,27 @@
   <si>
     <t>20180213</t>
   </si>
+  <si>
+    <t>20180222</t>
+  </si>
+  <si>
+    <t>20180223</t>
+  </si>
+  <si>
+    <t>20180226</t>
+  </si>
+  <si>
+    <t>20180227</t>
+  </si>
+  <si>
+    <t>20180228</t>
+  </si>
+  <si>
+    <t>20180301</t>
+  </si>
+  <si>
+    <t>20180302</t>
+  </si>
 </sst>
 </file>
 
@@ -779,7 +800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT92"/>
+  <dimension ref="A1:AT99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13662,6 +13683,986 @@
         <v>2417.27</v>
       </c>
     </row>
+    <row r="93" spans="1:46">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>136</v>
+      </c>
+      <c r="C93">
+        <v>52290</v>
+      </c>
+      <c r="D93">
+        <v>3924</v>
+      </c>
+      <c r="E93">
+        <v>26600</v>
+      </c>
+      <c r="F93">
+        <v>13715</v>
+      </c>
+      <c r="G93">
+        <v>271.39</v>
+      </c>
+      <c r="H93">
+        <v>4231.11</v>
+      </c>
+      <c r="I93">
+        <v>3963.33</v>
+      </c>
+      <c r="J93">
+        <v>11745.5</v>
+      </c>
+      <c r="K93">
+        <v>19250</v>
+      </c>
+      <c r="L93">
+        <v>3620</v>
+      </c>
+      <c r="M93">
+        <v>2843.33</v>
+      </c>
+      <c r="N93">
+        <v>4117.69</v>
+      </c>
+      <c r="O93">
+        <v>102150</v>
+      </c>
+      <c r="P93">
+        <v>148000</v>
+      </c>
+      <c r="Q93">
+        <v>5714.55</v>
+      </c>
+      <c r="R93">
+        <v>6258</v>
+      </c>
+      <c r="S93">
+        <v>15663.7</v>
+      </c>
+      <c r="T93">
+        <v>2528</v>
+      </c>
+      <c r="U93">
+        <v>6518.33</v>
+      </c>
+      <c r="V93">
+        <v>2616.67</v>
+      </c>
+      <c r="W93">
+        <v>1543.2</v>
+      </c>
+      <c r="X93">
+        <v>2355</v>
+      </c>
+      <c r="Y93">
+        <v>5490</v>
+      </c>
+      <c r="Z93">
+        <v>3000</v>
+      </c>
+      <c r="AA93">
+        <v>2709</v>
+      </c>
+      <c r="AB93">
+        <v>7204.55</v>
+      </c>
+      <c r="AC93">
+        <v>8131.25</v>
+      </c>
+      <c r="AD93">
+        <v>2855</v>
+      </c>
+      <c r="AE93">
+        <v>740.8</v>
+      </c>
+      <c r="AF93">
+        <v>5160</v>
+      </c>
+      <c r="AG93">
+        <v>6450</v>
+      </c>
+      <c r="AH93">
+        <v>9655</v>
+      </c>
+      <c r="AI93">
+        <v>3660</v>
+      </c>
+      <c r="AJ93">
+        <v>3068.57</v>
+      </c>
+      <c r="AK93">
+        <v>5637.5</v>
+      </c>
+      <c r="AL93">
+        <v>1781.07</v>
+      </c>
+      <c r="AM93">
+        <v>1880</v>
+      </c>
+      <c r="AN93">
+        <v>1498.33</v>
+      </c>
+      <c r="AO93">
+        <v>548.67</v>
+      </c>
+      <c r="AP93">
+        <v>4230</v>
+      </c>
+      <c r="AQ93">
+        <v>122.67</v>
+      </c>
+      <c r="AR93">
+        <v>75</v>
+      </c>
+      <c r="AS93">
+        <v>9183.33</v>
+      </c>
+      <c r="AT93">
+        <v>2418.18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:46">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>137</v>
+      </c>
+      <c r="C94">
+        <v>53070</v>
+      </c>
+      <c r="D94">
+        <v>3920</v>
+      </c>
+      <c r="E94">
+        <v>26930</v>
+      </c>
+      <c r="F94">
+        <v>13970</v>
+      </c>
+      <c r="G94">
+        <v>272.2</v>
+      </c>
+      <c r="H94">
+        <v>4232.22</v>
+      </c>
+      <c r="I94">
+        <v>3941.67</v>
+      </c>
+      <c r="J94">
+        <v>11772.7</v>
+      </c>
+      <c r="K94">
+        <v>19400</v>
+      </c>
+      <c r="L94">
+        <v>3622.67</v>
+      </c>
+      <c r="M94">
+        <v>2846.67</v>
+      </c>
+      <c r="N94">
+        <v>4100</v>
+      </c>
+      <c r="O94">
+        <v>104150</v>
+      </c>
+      <c r="P94">
+        <v>147250</v>
+      </c>
+      <c r="Q94">
+        <v>5884.55</v>
+      </c>
+      <c r="R94">
+        <v>6258</v>
+      </c>
+      <c r="S94">
+        <v>15664</v>
+      </c>
+      <c r="T94">
+        <v>2528</v>
+      </c>
+      <c r="U94">
+        <v>6525</v>
+      </c>
+      <c r="V94">
+        <v>2616.67</v>
+      </c>
+      <c r="W94">
+        <v>1544.8</v>
+      </c>
+      <c r="X94">
+        <v>2363.33</v>
+      </c>
+      <c r="Y94">
+        <v>5490</v>
+      </c>
+      <c r="Z94">
+        <v>3000</v>
+      </c>
+      <c r="AA94">
+        <v>2709</v>
+      </c>
+      <c r="AB94">
+        <v>7177.27</v>
+      </c>
+      <c r="AC94">
+        <v>8131.25</v>
+      </c>
+      <c r="AD94">
+        <v>2880</v>
+      </c>
+      <c r="AE94">
+        <v>734.4</v>
+      </c>
+      <c r="AF94">
+        <v>5160</v>
+      </c>
+      <c r="AG94">
+        <v>6450</v>
+      </c>
+      <c r="AH94">
+        <v>9605</v>
+      </c>
+      <c r="AI94">
+        <v>3660</v>
+      </c>
+      <c r="AJ94">
+        <v>3064.29</v>
+      </c>
+      <c r="AK94">
+        <v>5682.5</v>
+      </c>
+      <c r="AL94">
+        <v>1781.79</v>
+      </c>
+      <c r="AM94">
+        <v>1880</v>
+      </c>
+      <c r="AN94">
+        <v>1498.33</v>
+      </c>
+      <c r="AO94">
+        <v>550.5599999999999</v>
+      </c>
+      <c r="AP94">
+        <v>4175</v>
+      </c>
+      <c r="AQ94">
+        <v>122.67</v>
+      </c>
+      <c r="AR94">
+        <v>75</v>
+      </c>
+      <c r="AS94">
+        <v>9150</v>
+      </c>
+      <c r="AT94">
+        <v>2418.18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:46">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>138</v>
+      </c>
+      <c r="C95">
+        <v>52950</v>
+      </c>
+      <c r="D95">
+        <v>4042.14</v>
+      </c>
+      <c r="E95">
+        <v>26930</v>
+      </c>
+      <c r="F95">
+        <v>13910</v>
+      </c>
+      <c r="G95">
+        <v>272.95</v>
+      </c>
+      <c r="H95">
+        <v>4348.89</v>
+      </c>
+      <c r="I95">
+        <v>3988.33</v>
+      </c>
+      <c r="J95">
+        <v>12031.8</v>
+      </c>
+      <c r="K95">
+        <v>19400</v>
+      </c>
+      <c r="L95">
+        <v>3632.5</v>
+      </c>
+      <c r="M95">
+        <v>2846.67</v>
+      </c>
+      <c r="N95">
+        <v>4194.17</v>
+      </c>
+      <c r="O95">
+        <v>103650</v>
+      </c>
+      <c r="P95">
+        <v>146750</v>
+      </c>
+      <c r="Q95">
+        <v>5990.91</v>
+      </c>
+      <c r="R95">
+        <v>6218</v>
+      </c>
+      <c r="S95">
+        <v>15651.6</v>
+      </c>
+      <c r="T95">
+        <v>2520</v>
+      </c>
+      <c r="U95">
+        <v>6538.33</v>
+      </c>
+      <c r="V95">
+        <v>2616.67</v>
+      </c>
+      <c r="W95">
+        <v>1548</v>
+      </c>
+      <c r="X95">
+        <v>2403.33</v>
+      </c>
+      <c r="Y95">
+        <v>5490</v>
+      </c>
+      <c r="Z95">
+        <v>3000</v>
+      </c>
+      <c r="AA95">
+        <v>2709</v>
+      </c>
+      <c r="AB95">
+        <v>7045</v>
+      </c>
+      <c r="AC95">
+        <v>8143.75</v>
+      </c>
+      <c r="AD95">
+        <v>2837.5</v>
+      </c>
+      <c r="AE95">
+        <v>728.8</v>
+      </c>
+      <c r="AF95">
+        <v>5215</v>
+      </c>
+      <c r="AG95">
+        <v>6450</v>
+      </c>
+      <c r="AH95">
+        <v>9565</v>
+      </c>
+      <c r="AI95">
+        <v>3660</v>
+      </c>
+      <c r="AJ95">
+        <v>3081.43</v>
+      </c>
+      <c r="AK95">
+        <v>5736.25</v>
+      </c>
+      <c r="AL95">
+        <v>1787.14</v>
+      </c>
+      <c r="AM95">
+        <v>1960</v>
+      </c>
+      <c r="AN95">
+        <v>1498.33</v>
+      </c>
+      <c r="AO95">
+        <v>561.33</v>
+      </c>
+      <c r="AP95">
+        <v>4090</v>
+      </c>
+      <c r="AQ95">
+        <v>122.67</v>
+      </c>
+      <c r="AR95">
+        <v>75</v>
+      </c>
+      <c r="AS95">
+        <v>9062.5</v>
+      </c>
+      <c r="AT95">
+        <v>2420.91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:46">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>139</v>
+      </c>
+      <c r="C96">
+        <v>52920</v>
+      </c>
+      <c r="D96">
+        <v>4055.71</v>
+      </c>
+      <c r="E96">
+        <v>27000</v>
+      </c>
+      <c r="F96">
+        <v>13950</v>
+      </c>
+      <c r="G96">
+        <v>272</v>
+      </c>
+      <c r="H96">
+        <v>4366.67</v>
+      </c>
+      <c r="I96">
+        <v>3988.33</v>
+      </c>
+      <c r="J96">
+        <v>12163.6</v>
+      </c>
+      <c r="K96">
+        <v>19550</v>
+      </c>
+      <c r="L96">
+        <v>3652</v>
+      </c>
+      <c r="M96">
+        <v>2846.67</v>
+      </c>
+      <c r="N96">
+        <v>4195.83</v>
+      </c>
+      <c r="O96">
+        <v>104450</v>
+      </c>
+      <c r="P96">
+        <v>147000</v>
+      </c>
+      <c r="Q96">
+        <v>6015.45</v>
+      </c>
+      <c r="R96">
+        <v>6178</v>
+      </c>
+      <c r="S96">
+        <v>15647.3</v>
+      </c>
+      <c r="T96">
+        <v>2502</v>
+      </c>
+      <c r="U96">
+        <v>6515</v>
+      </c>
+      <c r="V96">
+        <v>2616.67</v>
+      </c>
+      <c r="W96">
+        <v>1548</v>
+      </c>
+      <c r="X96">
+        <v>2411.67</v>
+      </c>
+      <c r="Y96">
+        <v>5490</v>
+      </c>
+      <c r="Z96">
+        <v>3000</v>
+      </c>
+      <c r="AA96">
+        <v>2709</v>
+      </c>
+      <c r="AB96">
+        <v>7045</v>
+      </c>
+      <c r="AC96">
+        <v>8156.25</v>
+      </c>
+      <c r="AD96">
+        <v>2727.5</v>
+      </c>
+      <c r="AE96">
+        <v>724</v>
+      </c>
+      <c r="AF96">
+        <v>5265</v>
+      </c>
+      <c r="AG96">
+        <v>6450</v>
+      </c>
+      <c r="AH96">
+        <v>9565</v>
+      </c>
+      <c r="AI96">
+        <v>3652</v>
+      </c>
+      <c r="AJ96">
+        <v>3077.14</v>
+      </c>
+      <c r="AK96">
+        <v>5730</v>
+      </c>
+      <c r="AL96">
+        <v>1790.71</v>
+      </c>
+      <c r="AM96">
+        <v>1960</v>
+      </c>
+      <c r="AN96">
+        <v>1498.33</v>
+      </c>
+      <c r="AO96">
+        <v>566.4400000000001</v>
+      </c>
+      <c r="AP96">
+        <v>4050</v>
+      </c>
+      <c r="AQ96">
+        <v>122.67</v>
+      </c>
+      <c r="AR96">
+        <v>75</v>
+      </c>
+      <c r="AS96">
+        <v>9062.5</v>
+      </c>
+      <c r="AT96">
+        <v>2420.91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:46">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>140</v>
+      </c>
+      <c r="C97">
+        <v>52430</v>
+      </c>
+      <c r="D97">
+        <v>4059.29</v>
+      </c>
+      <c r="E97">
+        <v>26700</v>
+      </c>
+      <c r="F97">
+        <v>14045</v>
+      </c>
+      <c r="G97">
+        <v>270.01</v>
+      </c>
+      <c r="H97">
+        <v>4367.78</v>
+      </c>
+      <c r="I97">
+        <v>3988.33</v>
+      </c>
+      <c r="J97">
+        <v>12163.6</v>
+      </c>
+      <c r="K97">
+        <v>19300</v>
+      </c>
+      <c r="L97">
+        <v>3611</v>
+      </c>
+      <c r="M97">
+        <v>2846.67</v>
+      </c>
+      <c r="N97">
+        <v>4185</v>
+      </c>
+      <c r="O97">
+        <v>104250</v>
+      </c>
+      <c r="P97">
+        <v>147250</v>
+      </c>
+      <c r="Q97">
+        <v>5995.45</v>
+      </c>
+      <c r="R97">
+        <v>6154</v>
+      </c>
+      <c r="S97">
+        <v>15647.7</v>
+      </c>
+      <c r="T97">
+        <v>2496</v>
+      </c>
+      <c r="U97">
+        <v>6506.67</v>
+      </c>
+      <c r="V97">
+        <v>2616.67</v>
+      </c>
+      <c r="W97">
+        <v>1548</v>
+      </c>
+      <c r="X97">
+        <v>2421.67</v>
+      </c>
+      <c r="Y97">
+        <v>5490</v>
+      </c>
+      <c r="Z97">
+        <v>3000</v>
+      </c>
+      <c r="AA97">
+        <v>2709</v>
+      </c>
+      <c r="AB97">
+        <v>6860</v>
+      </c>
+      <c r="AC97">
+        <v>8256.25</v>
+      </c>
+      <c r="AD97">
+        <v>2640</v>
+      </c>
+      <c r="AE97">
+        <v>712.8</v>
+      </c>
+      <c r="AF97">
+        <v>5267.5</v>
+      </c>
+      <c r="AG97">
+        <v>6450</v>
+      </c>
+      <c r="AH97">
+        <v>9555</v>
+      </c>
+      <c r="AI97">
+        <v>3652</v>
+      </c>
+      <c r="AJ97">
+        <v>3111.43</v>
+      </c>
+      <c r="AK97">
+        <v>5722.5</v>
+      </c>
+      <c r="AL97">
+        <v>1793.21</v>
+      </c>
+      <c r="AM97">
+        <v>1976.67</v>
+      </c>
+      <c r="AN97">
+        <v>1498.33</v>
+      </c>
+      <c r="AO97">
+        <v>564</v>
+      </c>
+      <c r="AP97">
+        <v>3950</v>
+      </c>
+      <c r="AQ97">
+        <v>122.67</v>
+      </c>
+      <c r="AR97">
+        <v>75</v>
+      </c>
+      <c r="AS97">
+        <v>9058.33</v>
+      </c>
+      <c r="AT97">
+        <v>2425.45</v>
+      </c>
+    </row>
+    <row r="98" spans="1:46">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>141</v>
+      </c>
+      <c r="C98">
+        <v>52050</v>
+      </c>
+      <c r="D98">
+        <v>4088.12</v>
+      </c>
+      <c r="E98">
+        <v>26730</v>
+      </c>
+      <c r="F98">
+        <v>14140</v>
+      </c>
+      <c r="G98">
+        <v>270.09</v>
+      </c>
+      <c r="H98">
+        <v>4402.5</v>
+      </c>
+      <c r="I98">
+        <v>3988.33</v>
+      </c>
+      <c r="J98">
+        <v>12118.2</v>
+      </c>
+      <c r="K98">
+        <v>19200</v>
+      </c>
+      <c r="L98">
+        <v>3609</v>
+      </c>
+      <c r="M98">
+        <v>2853.33</v>
+      </c>
+      <c r="N98">
+        <v>4190.83</v>
+      </c>
+      <c r="O98">
+        <v>103550</v>
+      </c>
+      <c r="P98">
+        <v>146750</v>
+      </c>
+      <c r="Q98">
+        <v>5995.45</v>
+      </c>
+      <c r="R98">
+        <v>6124</v>
+      </c>
+      <c r="S98">
+        <v>15655.6</v>
+      </c>
+      <c r="T98">
+        <v>2496</v>
+      </c>
+      <c r="U98">
+        <v>6510</v>
+      </c>
+      <c r="V98">
+        <v>2616.67</v>
+      </c>
+      <c r="W98">
+        <v>1548</v>
+      </c>
+      <c r="X98">
+        <v>2421.67</v>
+      </c>
+      <c r="Y98">
+        <v>5490</v>
+      </c>
+      <c r="Z98">
+        <v>3000</v>
+      </c>
+      <c r="AA98">
+        <v>2709</v>
+      </c>
+      <c r="AB98">
+        <v>6789.09</v>
+      </c>
+      <c r="AC98">
+        <v>8371.43</v>
+      </c>
+      <c r="AD98">
+        <v>2600</v>
+      </c>
+      <c r="AE98">
+        <v>706.4</v>
+      </c>
+      <c r="AF98">
+        <v>5297.5</v>
+      </c>
+      <c r="AG98">
+        <v>6450</v>
+      </c>
+      <c r="AH98">
+        <v>9565</v>
+      </c>
+      <c r="AI98">
+        <v>3652</v>
+      </c>
+      <c r="AJ98">
+        <v>3147.14</v>
+      </c>
+      <c r="AK98">
+        <v>5731.25</v>
+      </c>
+      <c r="AL98">
+        <v>1798.57</v>
+      </c>
+      <c r="AM98">
+        <v>1976.67</v>
+      </c>
+      <c r="AN98">
+        <v>1498.33</v>
+      </c>
+      <c r="AO98">
+        <v>561</v>
+      </c>
+      <c r="AP98">
+        <v>3890</v>
+      </c>
+      <c r="AQ98">
+        <v>122.67</v>
+      </c>
+      <c r="AR98">
+        <v>75</v>
+      </c>
+      <c r="AS98">
+        <v>9041.67</v>
+      </c>
+      <c r="AT98">
+        <v>2426.36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:46">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>142</v>
+      </c>
+      <c r="C99">
+        <v>51960</v>
+      </c>
+      <c r="D99">
+        <v>4085.62</v>
+      </c>
+      <c r="E99">
+        <v>26490</v>
+      </c>
+      <c r="F99">
+        <v>14140</v>
+      </c>
+      <c r="G99">
+        <v>270.9</v>
+      </c>
+      <c r="H99">
+        <v>4393.75</v>
+      </c>
+      <c r="I99">
+        <v>3980</v>
+      </c>
+      <c r="J99">
+        <v>12140.9</v>
+      </c>
+      <c r="K99">
+        <v>19000</v>
+      </c>
+      <c r="L99">
+        <v>3613</v>
+      </c>
+      <c r="M99">
+        <v>2853.33</v>
+      </c>
+      <c r="N99">
+        <v>4179.17</v>
+      </c>
+      <c r="O99">
+        <v>101800</v>
+      </c>
+      <c r="P99">
+        <v>146500</v>
+      </c>
+      <c r="Q99">
+        <v>6038.18</v>
+      </c>
+      <c r="R99">
+        <v>6104</v>
+      </c>
+      <c r="S99">
+        <v>15657</v>
+      </c>
+      <c r="T99">
+        <v>2496</v>
+      </c>
+      <c r="U99">
+        <v>6541.67</v>
+      </c>
+      <c r="V99">
+        <v>2616.67</v>
+      </c>
+      <c r="W99">
+        <v>1549.6</v>
+      </c>
+      <c r="X99">
+        <v>2515</v>
+      </c>
+      <c r="Y99">
+        <v>5490</v>
+      </c>
+      <c r="Z99">
+        <v>3000</v>
+      </c>
+      <c r="AA99">
+        <v>2709</v>
+      </c>
+      <c r="AB99">
+        <v>6789.09</v>
+      </c>
+      <c r="AC99">
+        <v>8371.43</v>
+      </c>
+      <c r="AD99">
+        <v>2555</v>
+      </c>
+      <c r="AE99">
+        <v>697.6</v>
+      </c>
+      <c r="AF99">
+        <v>5300</v>
+      </c>
+      <c r="AG99">
+        <v>6479.17</v>
+      </c>
+      <c r="AH99">
+        <v>9565</v>
+      </c>
+      <c r="AI99">
+        <v>3652</v>
+      </c>
+      <c r="AJ99">
+        <v>3217.14</v>
+      </c>
+      <c r="AK99">
+        <v>5803.75</v>
+      </c>
+      <c r="AL99">
+        <v>1806.79</v>
+      </c>
+      <c r="AM99">
+        <v>1976.67</v>
+      </c>
+      <c r="AN99">
+        <v>1498.33</v>
+      </c>
+      <c r="AO99">
+        <v>562.11</v>
+      </c>
+      <c r="AP99">
+        <v>3830</v>
+      </c>
+      <c r="AQ99">
+        <v>121</v>
+      </c>
+      <c r="AR99">
+        <v>74.83</v>
+      </c>
+      <c r="AS99">
+        <v>9054.17</v>
+      </c>
+      <c r="AT99">
+        <v>2429.09</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
